--- a/biology/Botanique/Rosales/Rosales.xlsx
+++ b/biology/Botanique/Rosales/Rosales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rosales sont un ordre de plantes dicotylédones.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rosales comprennent plantes herbacées annuelles à vivaces, des ligneuses (arbres et arbustes) mais pas de plantes aquatiques ni de parasites. Leurs feuilles sont souvent stipulées et divisées, leurs inflorescences de type cyme portent des fleurs hypogynes. Elles englobent surtout des familles présentant des réductions florales (pseudanthes). Seules les Rosaceae et les Rhamnaceae ont des fleurs parfaites (hétérochlamydes, dialypétales), encore que ces dernières soient parfois apétales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rosales comprennent plantes herbacées annuelles à vivaces, des ligneuses (arbres et arbustes) mais pas de plantes aquatiques ni de parasites. Leurs feuilles sont souvent stipulées et divisées, leurs inflorescences de type cyme portent des fleurs hypogynes. Elles englobent surtout des familles présentant des réductions florales (pseudanthes). Seules les Rosaceae et les Rhamnaceae ont des fleurs parfaites (hétérochlamydes, dialypétales), encore que ces dernières soient parfois apétales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] il regroupe 24 familles végétales :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981) il regroupe 24 familles végétales :
 Alseuosmiacées
 Anisophylléacées
 Brunelliacées
@@ -569,7 +585,7 @@
 Rosacées
 Saxifragacées
 Surianacées
-En classification phylogénétique APG (1998)[3] la circonscription était
+En classification phylogénétique APG (1998) la circonscription était
 ordre Rosales
 : famille Barbeyaceae
 : famille Cannabaceae (famille du chanvre et du houblon)
@@ -582,7 +598,7 @@
 : famille Rosaceae famille du rosier
 : famille Ulmaceae (famille de l'orme)
 : famille Urticaceae (famille de l'ortie)
-En classification phylogénétique APG II (2003)[4] et en classification phylogénétique APG III (2009)[5] la circonscription est
+En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) la circonscription est
 ordre Rosales Bercht. &amp; J.Presl (1820)
 : famille Barbeyaceae Rendle (1916)
 : famille Cannabaceae Martinov (1820) (incl. Celtidaceae)
@@ -592,9 +608,43 @@
 : famille Rhamnaceae Juss. (1789)
 : famille Rosaceae Juss. (1789)
 : famille Ulmaceae Mirb. (1815)
-: famille Urticaceae Juss. (1789) (incl. Cecropiaceae)
-Phylogénie
-L'arbre phylogénétiquesuivant est issu d'une analyse cladistique de l'ADN publiée en 2011[6].
+: famille Urticaceae Juss. (1789) (incl. Cecropiaceae)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre phylogénétiquesuivant est issu d'une analyse cladistique de l'ADN publiée en 2011.
 </t>
         </is>
       </c>
